--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3098.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3098.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.604441719494908</v>
+        <v>1.240655899047852</v>
       </c>
       <c r="B1">
-        <v>2.513003628928557</v>
+        <v>2.363288879394531</v>
       </c>
       <c r="C1">
-        <v>2.793788783595025</v>
+        <v>3.809030771255493</v>
       </c>
       <c r="D1">
-        <v>3.327311743417404</v>
+        <v>3.114845037460327</v>
       </c>
       <c r="E1">
-        <v>3.092786582115315</v>
+        <v>1.284807920455933</v>
       </c>
     </row>
   </sheetData>
